--- a/训练中心创客交叉融合空间建设/doc/创客空间器材设备列表.xlsx
+++ b/训练中心创客交叉融合空间建设/doc/创客空间器材设备列表.xlsx
@@ -14,20 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单套价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否已购置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,18 +35,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://detail.tmall.com/item.htm?spm=a230r.1.14.1.QJmu23&amp;id=15578912240</t>
+  </si>
+  <si>
+    <t>咖啡机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气净化器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微波炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.jd.com/272831.html</t>
+  </si>
+  <si>
+    <t>http://item.jd.com/505244.html</t>
+  </si>
+  <si>
+    <t>性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去甲醛95%，去苯96%，去微粒92%，51-99平米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去甲醛98.08%，去苯97.38%，去微粒90%，80平米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海信 BC-90S </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍尼韦尔 18450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚都 KJF2901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.jd.com/364099.html</t>
+  </si>
+  <si>
+    <t>90L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.jd.com/698185.html</t>
+  </si>
+  <si>
+    <t>美的 EG823MF3-NW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800W，23L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京京东世纪信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟选厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔 BCD-190TMPK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购置理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西屋 AP-845X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于创客空间教学配套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于创客空间教学活动配套保障及材料保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +168,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,15 +199,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -407,61 +519,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4">
+        <v>499</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1299</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2599</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2599</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6599</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>659</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:F1048576 G1">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="E5:H5 E1:H3 I1 E7:H1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -473,30 +740,16 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FF92D050"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J10" r:id="rId2"/>
+    <hyperlink ref="J11" r:id="rId3"/>
+    <hyperlink ref="J12" r:id="rId4"/>
+    <hyperlink ref="J5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -513,7 +766,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D1:F1048576 G1</xm:sqref>
+          <xm:sqref>E5:H5 E1:H3 I1 E7:H1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
